--- a/summer接口请求 basic.xlsx
+++ b/summer接口请求 basic.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>请求描述</t>
   </si>
@@ -49,13 +49,10 @@
     <t>注册</t>
   </si>
   <si>
-    <t>用户名：name,密码：password</t>
-  </si>
-  <si>
-    <t>申请的账号：account</t>
-  </si>
-  <si>
-    <t>PUT</t>
+    <t>用户名：name,密码：password,账户：account</t>
+  </si>
+  <si>
+    <t>申请的账号：msg</t>
   </si>
   <si>
     <t>register</t>
@@ -70,9 +67,6 @@
     <t>视频对象列表video(videoID，src,title,likeNum,collectedNum,commentNum)[]</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
     <t>getRecommendedVideo</t>
   </si>
   <si>
@@ -143,6 +137,15 @@
   </si>
   <si>
     <t>setUserTag</t>
+  </si>
+  <si>
+    <t>获取全部视频</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>getAllVideos</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +259,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,10 +1459,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="7">
         <v>14</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>15</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -1473,19 +1479,19 @@
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="C4" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="D4" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="4">
         <v>18</v>
-      </c>
-      <c r="D4" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s" s="4">
-        <v>20</v>
       </c>
       <c r="F4" s="6">
         <v>0.5</v>
@@ -1502,19 +1508,19 @@
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="4">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -1531,19 +1537,19 @@
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="4">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="D7" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="4">
         <v>28</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s" s="4">
-        <v>30</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1587,19 +1593,19 @@
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="4">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="D8" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="4">
         <v>32</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s" s="4">
-        <v>34</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="4">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -1643,10 +1649,10 @@
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s" s="4">
         <v>8</v>
@@ -1655,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="11" ht="11.7" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s" s="4">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -1700,11 +1706,19 @@
       <c r="O11" s="9"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>43</v>
+      </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="10">
+        <v>44</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
